--- a/Misc/Excel/MonsterCfg.xlsx
+++ b/Misc/Excel/MonsterCfg.xlsx
@@ -101,7 +101,7 @@
     <t>战士</t>
   </si>
   <si>
-    <t>[4,1,3,5,6,7,8,2,9,10,20,21]</t>
+    <t>[4,1,3,5,6,7,8,2,9,10,20,21,22]</t>
   </si>
   <si>
     <t>76</t>

--- a/Misc/Excel/MonsterCfg.xlsx
+++ b/Misc/Excel/MonsterCfg.xlsx
@@ -1231,7 +1231,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>

--- a/Misc/Excel/MonsterCfg.xlsx
+++ b/Misc/Excel/MonsterCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>${name}</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>[6]</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>2</t>
@@ -723,7 +729,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -869,6 +875,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -1236,401 +1245,404 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
   <cols>
-    <col min="2" max="3" width="12.1666666666667" customWidth="1" style="50"/>
-    <col min="4" max="4" width="20.3333333333333" customWidth="1" style="50"/>
-    <col min="6" max="6" width="13.3333333333333" customWidth="1" style="50"/>
-    <col min="7" max="7" width="12.8666666666667" customWidth="1" style="50"/>
-    <col min="8" max="8" width="19.7333333333333" customWidth="1" style="50"/>
+    <col min="2" max="3" width="12.1666666666667" customWidth="1" style="51"/>
+    <col min="4" max="4" width="20.3333333333333" customWidth="1" style="51"/>
+    <col min="6" max="6" width="13.3333333333333" customWidth="1" style="51"/>
+    <col min="7" max="7" width="12.8666666666667" customWidth="1" style="51"/>
+    <col min="8" max="8" width="19.7333333333333" customWidth="1" style="51"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="51" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="51" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="51" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="52">
         <v>1</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
     </row>
     <row r="6">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="50">
-        <v>1</v>
-      </c>
-      <c r="I6" s="50">
-        <v>1</v>
-      </c>
-      <c r="J6" s="50">
-        <v>15</v>
+      <c r="H6" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="50">
-        <v>2</v>
-      </c>
-      <c r="I7" s="50">
-        <v>1</v>
-      </c>
-      <c r="J7" s="50">
-        <v>15</v>
-      </c>
-      <c r="K7" s="50">
-        <v>1</v>
+      <c r="K7" s="51" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="52"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
     </row>
     <row r="9">
-      <c r="A9" s="52"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
     </row>
     <row r="10">
-      <c r="A10" s="52"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
     </row>
     <row r="11">
-      <c r="A11" s="52"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
     </row>
     <row r="12">
-      <c r="A12" s="52"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
     </row>
     <row r="13">
-      <c r="A13" s="52"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14">
-      <c r="A14" s="52"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
     </row>
     <row r="15">
-      <c r="A15" s="52"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
     </row>
     <row r="16">
-      <c r="A16" s="52"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
     </row>
     <row r="17">
-      <c r="A17" s="52"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
     </row>
     <row r="18">
-      <c r="A18" s="52"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
     </row>
     <row r="19">
-      <c r="A19" s="52"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
     </row>
     <row r="20">
-      <c r="A20" s="52"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
     </row>
     <row r="21">
-      <c r="A21" s="52"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
     </row>
     <row r="22">
-      <c r="A22" s="52"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Misc/Excel/MonsterCfg.xlsx
+++ b/Misc/Excel/MonsterCfg.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="MonsterCfg" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>${name}</t>
   </si>
@@ -44,6 +44,9 @@
     <t>nAssetCfgID</t>
   </si>
   <si>
+    <t>arrLayer</t>
+  </si>
+  <si>
     <t>arrEnemyLayer</t>
   </si>
   <si>
@@ -98,7 +101,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>战士</t>
+    <t>warrior</t>
   </si>
   <si>
     <t>[4,1,3,5,6,7,8,2,9,10,20,21,22]</t>
@@ -107,12 +110,12 @@
     <t>76</t>
   </si>
   <si>
+    <t>[6]</t>
+  </si>
+  <si>
     <t>[7]</t>
   </si>
   <si>
-    <t>[6]</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -129,6 +132,18 @@
   </si>
   <si>
     <t>396</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>pastor</t>
+  </si>
+  <si>
+    <t>[20,8,5,23,24,25,26]</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
 </sst>
 </file>
@@ -146,17 +161,20 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,6 +182,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,12 +190,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,6 +205,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,6 +213,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,6 +221,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,6 +229,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,12 +237,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,6 +252,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,6 +260,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,12 +268,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,30 +283,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -729,173 +765,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1237,412 +1117,312 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
   <cols>
-    <col min="2" max="3" width="12.1666666666667" customWidth="1" style="51"/>
-    <col min="4" max="4" width="20.3333333333333" customWidth="1" style="51"/>
-    <col min="6" max="6" width="13.3333333333333" customWidth="1" style="51"/>
-    <col min="7" max="7" width="12.8666666666667" customWidth="1" style="51"/>
-    <col min="8" max="8" width="19.7333333333333" customWidth="1" style="51"/>
+    <col min="2" max="3" width="12.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="20.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="12.8666666666667" customWidth="1"/>
+    <col min="9" max="9" width="19.7333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="52" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="52" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="52" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="52" t="s">
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="52" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="52" t="s">
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="52">
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="51" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="51" t="s">
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="53"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="53"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="53"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="53"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="53"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="53"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="53"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="53"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="53"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="53"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="53"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="53"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="53"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="53"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="53"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
+      <c r="L8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Misc/Excel/MonsterCfg.xlsx
+++ b/Misc/Excel/MonsterCfg.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="MonsterCfg" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>${name}</t>
   </si>
@@ -140,10 +140,22 @@
     <t>pastor</t>
   </si>
   <si>
-    <t>[20,8,5,23,24,25,26]</t>
+    <t>[20,8,5,23,24,25,26,30]</t>
   </si>
   <si>
     <t>17</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>warrior2</t>
+  </si>
+  <si>
+    <t>[27,28]</t>
+  </si>
+  <si>
+    <t>55</t>
   </si>
 </sst>
 </file>
@@ -161,20 +173,17 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,7 +191,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,14 +198,12 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,7 +211,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,7 +218,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,7 +225,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,7 +232,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,14 +239,12 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,7 +252,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,7 +259,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,14 +266,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,35 +279,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -765,17 +756,170 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="55">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1120,309 +1264,487 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
   <cols>
-    <col min="2" max="3" width="12.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="20.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="13.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="12.8666666666667" customWidth="1"/>
-    <col min="9" max="9" width="19.7333333333333" customWidth="1"/>
+    <col min="2" max="3" width="12.1666666666667" customWidth="1" style="50"/>
+    <col min="4" max="4" width="20.3333333333333" customWidth="1" style="50"/>
+    <col min="7" max="7" width="13.3333333333333" customWidth="1" style="50"/>
+    <col min="8" max="8" width="12.8666666666667" customWidth="1" style="50"/>
+    <col min="9" max="9" width="19.7333333333333" customWidth="1" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="2">
+      <c r="A2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="50" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
+    <row r="4">
+      <c r="A4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="50" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+    <row r="5">
+      <c r="A5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="51">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
+    <row r="7">
+      <c r="A7" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="2" t="s">
+    <row r="8">
+      <c r="A8" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
+      <c r="L8" s="50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="52"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="52"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="52"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="52"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="52"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="52"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="52"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="52"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="52"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="52"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="52"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="52"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="52"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Misc/Excel/MonsterCfg.xlsx
+++ b/Misc/Excel/MonsterCfg.xlsx
@@ -101,7 +101,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>warrior</t>
+    <t>Warrior</t>
   </si>
   <si>
     <t>[4,1,3,5,6,7,8,2,9,10,20,21,22]</t>
@@ -125,7 +125,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>Monster0</t>
+    <t>Monster</t>
   </si>
   <si>
     <t>[13,14,15,16,17,18]</t>
@@ -137,7 +137,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>pastor</t>
+    <t>Pastor</t>
   </si>
   <si>
     <t>[20,8,5,23,24,25,26,30]</t>
@@ -149,7 +149,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>warrior2</t>
+    <t>Blur Warrior</t>
   </si>
   <si>
     <t>[27,28]</t>
@@ -756,7 +756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -902,9 +902,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -1264,487 +1261,487 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
   <cols>
-    <col min="2" max="3" width="12.1666666666667" customWidth="1" style="50"/>
-    <col min="4" max="4" width="20.3333333333333" customWidth="1" style="50"/>
-    <col min="7" max="7" width="13.3333333333333" customWidth="1" style="50"/>
-    <col min="8" max="8" width="12.8666666666667" customWidth="1" style="50"/>
-    <col min="9" max="9" width="19.7333333333333" customWidth="1" style="50"/>
+    <col min="2" max="3" width="12.1666666666667" customWidth="1" style="49"/>
+    <col min="4" max="4" width="20.3333333333333" customWidth="1" style="49"/>
+    <col min="7" max="7" width="13.3333333333333" customWidth="1" style="49"/>
+    <col min="8" max="8" width="12.8666666666667" customWidth="1" style="49"/>
+    <col min="9" max="9" width="19.7333333333333" customWidth="1" style="49"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="49" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="49" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="50">
         <v>1</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
     </row>
     <row r="6">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="49" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="50" t="s">
+      <c r="L7" s="49" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="50" t="s">
+      <c r="L8" s="49" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="50" t="s">
-        <v>30</v>
+      <c r="L9" s="49" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="52"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
     </row>
     <row r="11">
-      <c r="A11" s="52"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
     </row>
     <row r="12">
-      <c r="A12" s="52"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
     </row>
     <row r="13">
-      <c r="A13" s="52"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
     </row>
     <row r="14">
-      <c r="A14" s="52"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
     </row>
     <row r="15">
-      <c r="A15" s="52"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
     </row>
     <row r="16">
-      <c r="A16" s="52"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
     </row>
     <row r="17">
-      <c r="A17" s="52"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
     </row>
     <row r="18">
-      <c r="A18" s="52"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
     </row>
     <row r="19">
-      <c r="A19" s="52"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
     </row>
     <row r="20">
-      <c r="A20" s="52"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
     </row>
     <row r="21">
-      <c r="A21" s="52"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
     </row>
     <row r="22">
-      <c r="A22" s="52"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Misc/Excel/MonsterCfg.xlsx
+++ b/Misc/Excel/MonsterCfg.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="MonsterCfg" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
   <si>
     <t>${name}</t>
   </si>
@@ -65,6 +65,9 @@
     <t>nAIID</t>
   </si>
   <si>
+    <t>nIconAssetID</t>
+  </si>
+  <si>
     <t>${desc}</t>
   </si>
   <si>
@@ -101,7 +104,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Warrior</t>
+    <t>战士0</t>
   </si>
   <si>
     <t>[4,1,3,5,6,7,8,2,9,10,20,21,22]</t>
@@ -125,7 +128,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>Monster</t>
+    <t>怪物0</t>
   </si>
   <si>
     <t>[13,14,15,16,17,18]</t>
@@ -137,7 +140,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>Pastor</t>
+    <t>牧师</t>
   </si>
   <si>
     <t>[20,8,5,23,24,25,26,30]</t>
@@ -149,7 +152,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>Blur Warrior</t>
+    <t>蓝战士</t>
   </si>
   <si>
     <t>[27,28]</t>
@@ -173,17 +176,20 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,6 +197,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,12 +205,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,6 +220,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,6 +228,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,6 +236,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,6 +244,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,12 +252,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,6 +267,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,6 +275,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,12 +283,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,30 +298,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -756,167 +780,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1258,490 +1132,366 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
   <cols>
-    <col min="2" max="3" width="12.1666666666667" customWidth="1" style="49"/>
-    <col min="4" max="4" width="20.3333333333333" customWidth="1" style="49"/>
-    <col min="7" max="7" width="13.3333333333333" customWidth="1" style="49"/>
-    <col min="8" max="8" width="12.8666666666667" customWidth="1" style="49"/>
-    <col min="9" max="9" width="19.7333333333333" customWidth="1" style="49"/>
+    <col min="2" max="3" width="12.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="20.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="12.8666666666667" customWidth="1"/>
+    <col min="9" max="9" width="19.7333333333333" customWidth="1"/>
+    <col min="13" max="13" width="12.0666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="50" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="50" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="50" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50" t="s">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="49" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="50" t="s">
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="50" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="50">
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="49" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="49" t="s">
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="49" t="s">
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="49" t="s">
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="49" t="s">
+      <c r="L8" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="49" t="s">
+      <c r="M8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="49" t="s">
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="49" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="49" t="s">
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="49" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="51"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="51"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="51"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="51"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="51"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="51"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="51"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="51"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="51"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="51"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="51"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="51"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="51"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
+      <c r="M9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
